--- a/storage/app/utils/Sliders.xlsx
+++ b/storage/app/utils/Sliders.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\gestionpublica\storage\app\utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Academia San Fernando\storage\app\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610BBFFE-2B3D-4555-841F-EE6490A8620D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226E07ED-50D7-4CA2-9409-C27B5DA2AEB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>id</t>
   </si>
@@ -36,16 +36,11 @@
     <t>description</t>
   </si>
   <si>
-    <t>Transparencia y Acceso a la Información</t>
+    <t>Aprende, Avanza y Especialízate en Medicina</t>
   </si>
   <si>
-    <t>Participación Ciudadana Activa</t>
-  </si>
-  <si>
-    <t>Facilitamos el acceso a la información pública para que los ciudadanos puedan tomar decisiones informadas. Nuestro compromiso es la transparencia en cada proceso de gestión pública.</t>
-  </si>
-  <si>
-    <t>Invitamos a todos los ciudadanos a involucrarse en la toma de decisiones. Tu voz es crucial para mejorar nuestros servicios y fortalecer la gestión pública en beneficio de todos.</t>
+    <t>Cursos diseñados por expertos para estudiantes y médicos en
+busca de excelencia.</t>
   </si>
 </sst>
 </file>
@@ -81,8 +76,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,26 +385,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
